--- a/excel/2242024.xlsx
+++ b/excel/2242024.xlsx
@@ -2642,9 +2642,21 @@
           <t>1</t>
         </is>
       </c>
-      <c r="N15" s="8" t="n"/>
-      <c r="O15" s="10" t="n"/>
-      <c r="P15" s="8" t="n"/>
+      <c r="N15" s="8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="O15" s="10" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="P15" s="8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="Q15" s="8" t="n"/>
       <c r="R15" s="8" t="n"/>
       <c r="S15" s="8" t="n"/>
